--- a/UploadSheet.xlsx
+++ b/UploadSheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\50204512\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mazok\Documents\GitHub\TCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75419800-4503-4CA6-BBE5-486835E42433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>Name</t>
   </si>
@@ -93,12 +94,30 @@
   </si>
   <si>
     <t>ServingSize</t>
+  </si>
+  <si>
+    <t>PELOTE</t>
+  </si>
+  <si>
+    <t>TBA</t>
+  </si>
+  <si>
+    <t>generic_thumb.jpg</t>
+  </si>
+  <si>
+    <t>generic_cover.jpg</t>
+  </si>
+  <si>
+    <t>0kcal</t>
+  </si>
+  <si>
+    <t>0g</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -136,9 +155,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,11 +438,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AA1"/>
+      <selection activeCell="I2" sqref="I2:W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,6 +522,77 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/UploadSheet.xlsx
+++ b/UploadSheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mazok\Documents\GitHub\TCS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\46293385\Documents\GitHub\TCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75419800-4503-4CA6-BBE5-486835E42433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="56">
   <si>
     <t>Name</t>
   </si>
@@ -45,30 +44,9 @@
     <t>Cover</t>
   </si>
   <si>
-    <t>Calories</t>
-  </si>
-  <si>
-    <t>TotalFat</t>
-  </si>
-  <si>
-    <t>SaturatedFat</t>
-  </si>
-  <si>
-    <t>TransFat</t>
-  </si>
-  <si>
-    <t>Cholesterol</t>
-  </si>
-  <si>
     <t>Sodium</t>
   </si>
   <si>
-    <t>Sugar</t>
-  </si>
-  <si>
-    <t>AddedSugar</t>
-  </si>
-  <si>
     <t>Protein</t>
   </si>
   <si>
@@ -81,44 +59,146 @@
     <t>Iron</t>
   </si>
   <si>
-    <t>VitaminA</t>
-  </si>
-  <si>
-    <t>VitaminB</t>
-  </si>
-  <si>
-    <t>VitaminD</t>
-  </si>
-  <si>
-    <t>Potassium</t>
-  </si>
-  <si>
     <t>ServingSize</t>
   </si>
   <si>
-    <t>PELOTE</t>
-  </si>
-  <si>
     <t>TBA</t>
   </si>
   <si>
-    <t>generic_thumb.jpg</t>
-  </si>
-  <si>
-    <t>generic_cover.jpg</t>
-  </si>
-  <si>
-    <t>0kcal</t>
-  </si>
-  <si>
-    <t>0g</t>
+    <t>Carbohydrates</t>
+  </si>
+  <si>
+    <t>Yogur entero saborizado</t>
+  </si>
+  <si>
+    <t>Yogur descremado</t>
+  </si>
+  <si>
+    <t>Leche parc descr</t>
+  </si>
+  <si>
+    <t>Leche entera</t>
+  </si>
+  <si>
+    <t>Queso crema untable entero</t>
+  </si>
+  <si>
+    <t>Queso semidescremado untable</t>
+  </si>
+  <si>
+    <t>Queso pasta dura promedio</t>
+  </si>
+  <si>
+    <t>Huevo</t>
+  </si>
+  <si>
+    <t>Carne vacuna promedio</t>
+  </si>
+  <si>
+    <t>Carne ave promedio</t>
+  </si>
+  <si>
+    <t>Pescado promedio</t>
+  </si>
+  <si>
+    <t>Hortalizas A</t>
+  </si>
+  <si>
+    <t>Hortalizas B</t>
+  </si>
+  <si>
+    <t>Hortalizas C</t>
+  </si>
+  <si>
+    <t>Frutas promedio</t>
+  </si>
+  <si>
+    <t>Cereales promedio</t>
+  </si>
+  <si>
+    <t>Cereales integrales promedio</t>
+  </si>
+  <si>
+    <t>Legumbres promedio</t>
+  </si>
+  <si>
+    <t>Milanesa de soja</t>
+  </si>
+  <si>
+    <t>Pan promedio</t>
+  </si>
+  <si>
+    <t>Galletitas de agua</t>
+  </si>
+  <si>
+    <t>Galletitas integrales</t>
+  </si>
+  <si>
+    <t>Alfajor de chocolate</t>
+  </si>
+  <si>
+    <t>Galletitas dulces rellenas</t>
+  </si>
+  <si>
+    <t>Copos de cereal azucarados</t>
+  </si>
+  <si>
+    <t>Quinoa/semilla de lino</t>
+  </si>
+  <si>
+    <t>Frutas secas promedio</t>
+  </si>
+  <si>
+    <t>Gaseosa común</t>
+  </si>
+  <si>
+    <t>Jugo tipo Cepita</t>
+  </si>
+  <si>
+    <t>Azúcar</t>
+  </si>
+  <si>
+    <t>Dulce de batata</t>
+  </si>
+  <si>
+    <t>Dulce de membrillo</t>
+  </si>
+  <si>
+    <t>Mermelada de frutas</t>
+  </si>
+  <si>
+    <t>Dulce de leche</t>
+  </si>
+  <si>
+    <t>Aceite de oliva</t>
+  </si>
+  <si>
+    <t>Manteca</t>
+  </si>
+  <si>
+    <t>Crema de leche</t>
+  </si>
+  <si>
+    <t>Mayonesa</t>
+  </si>
+  <si>
+    <t>https://t2.rg.ltmcdn.com/es/posts/9/0/9/yogurt_casero_al_horno_35909_600_square.jpg</t>
+  </si>
+  <si>
+    <t>Yogurt entero sabor frutilla</t>
+  </si>
+  <si>
+    <t>La Serenisima</t>
+  </si>
+  <si>
+    <t>https://devsensacine.matiaszommer.repl.co/img/generic_cover.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +214,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -143,10 +236,36 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -155,10 +274,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,16 +569,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:W2"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -467,7 +601,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -476,121 +610,1485 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>23</v>
+    <row r="2" spans="1:27" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="4">
+        <v>12</v>
+      </c>
+      <c r="H2" s="4">
+        <v>4</v>
+      </c>
+      <c r="I2" s="4">
+        <v>2</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <v>59</v>
+      </c>
+      <c r="L2" s="4">
+        <v>125</v>
+      </c>
+      <c r="M2" s="5">
+        <v>150</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+    </row>
+    <row r="3" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="4">
+        <v>6</v>
+      </c>
+      <c r="H3" s="4">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>75</v>
+      </c>
+      <c r="L3" s="4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="4">
+        <v>5</v>
+      </c>
+      <c r="H4" s="4">
+        <v>3</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>55</v>
+      </c>
+      <c r="L4" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="4">
+        <v>5</v>
+      </c>
+      <c r="H5" s="4">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <v>3</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>57</v>
+      </c>
+      <c r="L5" s="4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="4">
+        <v>4</v>
+      </c>
+      <c r="H6" s="4">
+        <v>7</v>
+      </c>
+      <c r="I6" s="4">
+        <v>23</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>74</v>
+      </c>
+      <c r="L6" s="4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="4">
+        <v>6</v>
+      </c>
+      <c r="H7" s="4">
+        <v>12</v>
+      </c>
+      <c r="I7" s="4">
+        <v>4</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>90</v>
+      </c>
+      <c r="L7" s="4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="4">
+        <v>3</v>
+      </c>
+      <c r="H8" s="4">
+        <v>31</v>
+      </c>
+      <c r="I8" s="4">
+        <v>27</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>998</v>
+      </c>
+      <c r="L8" s="4">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>12</v>
+      </c>
+      <c r="I9" s="4">
+        <v>12</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>135</v>
+      </c>
+      <c r="L9" s="4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>20</v>
+      </c>
+      <c r="I10" s="4">
+        <v>10</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>66</v>
+      </c>
+      <c r="L10" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>21</v>
+      </c>
+      <c r="I11" s="4">
+        <v>4</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <v>73</v>
+      </c>
+      <c r="L11" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>20</v>
+      </c>
+      <c r="I12" s="4">
+        <v>3</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>172.33</v>
+      </c>
+      <c r="L12" s="4">
+        <v>25.67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="4">
+        <v>4</v>
+      </c>
+      <c r="H13" s="4">
+        <v>2</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>1.86</v>
+      </c>
+      <c r="K13" s="4">
+        <v>50.83</v>
+      </c>
+      <c r="L13" s="4">
+        <v>48.57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="4">
+        <v>11</v>
+      </c>
+      <c r="H14" s="4">
+        <v>5</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1</v>
+      </c>
+      <c r="J14" s="4">
+        <v>3.19</v>
+      </c>
+      <c r="K14" s="4">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="L14" s="4">
+        <v>37.49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H2" t="s">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="4">
+        <v>20</v>
+      </c>
+      <c r="H15" s="4">
+        <v>3</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="K15" s="4">
+        <v>23.33</v>
+      </c>
+      <c r="L15" s="4">
+        <v>25.33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>28</v>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="4">
+        <v>13</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <v>2.15</v>
+      </c>
+      <c r="K16" s="4">
+        <v>7.49</v>
+      </c>
+      <c r="L16" s="4">
+        <v>21.22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="4">
+        <v>74</v>
+      </c>
+      <c r="H17" s="4">
+        <v>10</v>
+      </c>
+      <c r="I17" s="4">
+        <v>2</v>
+      </c>
+      <c r="J17" s="4">
+        <v>6.3</v>
+      </c>
+      <c r="K17" s="4">
+        <v>206.44</v>
+      </c>
+      <c r="L17" s="4">
+        <v>53.53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="4">
+        <v>73</v>
+      </c>
+      <c r="H18" s="4">
+        <v>12</v>
+      </c>
+      <c r="I18" s="4">
+        <v>2</v>
+      </c>
+      <c r="J18" s="4">
+        <v>8.68</v>
+      </c>
+      <c r="K18" s="4">
+        <v>14.75</v>
+      </c>
+      <c r="L18" s="4">
+        <v>16.63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="4">
+        <v>61</v>
+      </c>
+      <c r="H19" s="4">
+        <v>22</v>
+      </c>
+      <c r="I19" s="4">
+        <v>3</v>
+      </c>
+      <c r="J19" s="4">
+        <v>18.23</v>
+      </c>
+      <c r="K19" s="4">
+        <v>16.53</v>
+      </c>
+      <c r="L19" s="4">
+        <v>78.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="4">
+        <v>40</v>
+      </c>
+      <c r="H20" s="4">
+        <v>29</v>
+      </c>
+      <c r="I20" s="4">
+        <v>15</v>
+      </c>
+      <c r="J20" s="4">
+        <v>2.92</v>
+      </c>
+      <c r="K20" s="4">
+        <v>1951</v>
+      </c>
+      <c r="L20" s="4">
+        <v>187.12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="4">
+        <v>52</v>
+      </c>
+      <c r="H21" s="4">
+        <v>8</v>
+      </c>
+      <c r="I21" s="4">
+        <v>2</v>
+      </c>
+      <c r="J21" s="4">
+        <v>2.63</v>
+      </c>
+      <c r="K21" s="4">
+        <v>245.33</v>
+      </c>
+      <c r="L21" s="4">
+        <v>22.33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="4">
+        <v>62</v>
+      </c>
+      <c r="H22" s="4">
+        <v>14</v>
+      </c>
+      <c r="I22" s="4">
+        <v>16</v>
+      </c>
+      <c r="J22" s="4">
+        <v>2</v>
+      </c>
+      <c r="K22" s="4">
+        <v>323</v>
+      </c>
+      <c r="L22" s="4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="4">
+        <v>66</v>
+      </c>
+      <c r="H23" s="4">
+        <v>11</v>
+      </c>
+      <c r="I23" s="4">
+        <v>16</v>
+      </c>
+      <c r="J23" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="K23" s="4">
+        <v>141</v>
+      </c>
+      <c r="L23" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" s="4">
+        <v>71</v>
+      </c>
+      <c r="H24" s="4">
+        <v>8</v>
+      </c>
+      <c r="I24" s="4">
+        <v>14</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="K24" s="4">
+        <v>173</v>
+      </c>
+      <c r="L24" s="4">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="4">
+        <v>72</v>
+      </c>
+      <c r="H25" s="4">
+        <v>5</v>
+      </c>
+      <c r="I25" s="4">
+        <v>20</v>
+      </c>
+      <c r="J25" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="K25" s="4">
+        <v>349</v>
+      </c>
+      <c r="L25" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="4">
+        <v>86</v>
+      </c>
+      <c r="H26" s="4">
+        <v>7</v>
+      </c>
+      <c r="I26" s="4">
+        <v>1</v>
+      </c>
+      <c r="J26" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="K26" s="4">
+        <v>725</v>
+      </c>
+      <c r="L26" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="4">
+        <v>69</v>
+      </c>
+      <c r="H27" s="4">
+        <v>13</v>
+      </c>
+      <c r="I27" s="4">
+        <v>6</v>
+      </c>
+      <c r="J27" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="K27" s="4">
+        <v>21</v>
+      </c>
+      <c r="L27" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" t="s">
+        <v>55</v>
+      </c>
+      <c r="G28" s="4">
+        <v>20</v>
+      </c>
+      <c r="H28" s="4">
+        <v>19</v>
+      </c>
+      <c r="I28" s="4">
+        <v>54</v>
+      </c>
+      <c r="J28" s="4">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="K28" s="4">
+        <v>163</v>
+      </c>
+      <c r="L28" s="4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="4">
+        <v>11</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0</v>
+      </c>
+      <c r="K29" s="4">
+        <v>4</v>
+      </c>
+      <c r="L29" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" s="4">
+        <v>12</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="K30" s="4">
+        <v>3</v>
+      </c>
+      <c r="L30" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" s="4">
+        <v>100</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0</v>
+      </c>
+      <c r="I31" s="4">
+        <v>0</v>
+      </c>
+      <c r="J31" s="4">
+        <v>0</v>
+      </c>
+      <c r="K31" s="4">
+        <v>0</v>
+      </c>
+      <c r="L31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" s="4">
+        <v>65</v>
+      </c>
+      <c r="H32" s="4">
+        <v>1</v>
+      </c>
+      <c r="I32" s="4">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="4">
+        <v>19</v>
+      </c>
+      <c r="L32" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" s="4">
+        <v>78</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0</v>
+      </c>
+      <c r="I33" s="4">
+        <v>0</v>
+      </c>
+      <c r="J33" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="K33" s="4">
+        <v>67</v>
+      </c>
+      <c r="L33" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" t="s">
+        <v>55</v>
+      </c>
+      <c r="G34" s="4">
+        <v>76</v>
+      </c>
+      <c r="H34" s="4">
+        <v>4</v>
+      </c>
+      <c r="I34" s="4">
+        <v>0</v>
+      </c>
+      <c r="J34" s="4">
+        <v>1.67</v>
+      </c>
+      <c r="K34" s="4">
+        <v>49</v>
+      </c>
+      <c r="L34" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" t="s">
+        <v>55</v>
+      </c>
+      <c r="G35" s="4">
+        <v>57</v>
+      </c>
+      <c r="H35" s="4">
+        <v>8</v>
+      </c>
+      <c r="I35" s="4">
+        <v>9</v>
+      </c>
+      <c r="J35" s="4">
+        <v>0</v>
+      </c>
+      <c r="K35" s="4">
+        <v>122</v>
+      </c>
+      <c r="L35" s="4">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" t="s">
+        <v>55</v>
+      </c>
+      <c r="G36" s="4">
+        <v>0</v>
+      </c>
+      <c r="H36" s="4">
+        <v>0</v>
+      </c>
+      <c r="I36" s="4">
+        <v>100</v>
+      </c>
+      <c r="J36" s="4">
+        <v>0</v>
+      </c>
+      <c r="K36" s="4">
+        <v>3</v>
+      </c>
+      <c r="L36" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" s="4">
+        <v>0</v>
+      </c>
+      <c r="H37" s="4">
+        <v>0</v>
+      </c>
+      <c r="I37" s="4">
+        <v>84</v>
+      </c>
+      <c r="J37" s="4">
+        <v>0</v>
+      </c>
+      <c r="K37" s="4">
+        <v>223</v>
+      </c>
+      <c r="L37" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38" t="s">
+        <v>55</v>
+      </c>
+      <c r="G38" s="4">
+        <v>3</v>
+      </c>
+      <c r="H38" s="4">
+        <v>2</v>
+      </c>
+      <c r="I38" s="4">
+        <v>37</v>
+      </c>
+      <c r="J38" s="4">
+        <v>0</v>
+      </c>
+      <c r="K38" s="4">
+        <v>38</v>
+      </c>
+      <c r="L38" s="4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" t="s">
+        <v>55</v>
+      </c>
+      <c r="G39" s="4">
+        <v>6</v>
+      </c>
+      <c r="H39" s="4">
+        <v>2</v>
+      </c>
+      <c r="I39" s="4">
+        <v>79</v>
+      </c>
+      <c r="J39" s="4">
+        <v>0</v>
+      </c>
+      <c r="K39" s="4">
+        <v>869</v>
+      </c>
+      <c r="L39" s="4">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
